--- a/Projeto 2/Annabelle_2.xlsx
+++ b/Projeto 2/Annabelle_2.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\GitHub\CienciaDosDados\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf_ga\OneDrive\Documentos\2º Semestre Eng\Ciencia dos Dados\GIT\CienciaDosDados\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="17D2D069EB89A04BA76C792A2316E95B668637CB" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{D4C2F4D2-8105-4E4A-AA63-82DF6B5C2D04}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="427">
   <si>
     <t>Treinamento</t>
   </si>
@@ -4177,18 +4178,22 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="128.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/Projeto 2/Annabelle_2.xlsx
+++ b/Projeto 2/Annabelle_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf_ga\OneDrive\Documentos\2º Semestre Eng\Ciencia dos Dados\GIT\CienciaDosDados\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="17D2D069EB89A04BA76C792A2316E95B668637CB" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{D4C2F4D2-8105-4E4A-AA63-82DF6B5C2D04}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="17D2D069EB89A04BA76C792A2316E95B668637CB" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{ED400F1D-6A95-4FEA-AD2B-98D70062C01F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4178,7 +4178,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
